--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H2">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I2">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J2">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.3576923313778</v>
+        <v>4.358929333333333</v>
       </c>
       <c r="N2">
-        <v>3.3576923313778</v>
+        <v>13.076788</v>
       </c>
       <c r="O2">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="P2">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="Q2">
-        <v>19.84753643045424</v>
+        <v>28.50743561738756</v>
       </c>
       <c r="R2">
-        <v>19.84753643045424</v>
+        <v>256.5669205564881</v>
       </c>
       <c r="S2">
-        <v>0.06161293523859062</v>
+        <v>0.07461920703228965</v>
       </c>
       <c r="T2">
-        <v>0.06161293523859062</v>
+        <v>0.07461920703228966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H3">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I3">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J3">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.74885430653512</v>
+        <v>1.781382333333333</v>
       </c>
       <c r="N3">
-        <v>1.74885430653512</v>
+        <v>5.344147</v>
       </c>
       <c r="O3">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="P3">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="Q3">
-        <v>10.33759086147999</v>
+        <v>11.65025589864689</v>
       </c>
       <c r="R3">
-        <v>10.33759086147999</v>
+        <v>104.852303087822</v>
       </c>
       <c r="S3">
-        <v>0.03209110201173898</v>
+        <v>0.03049495116109473</v>
       </c>
       <c r="T3">
-        <v>0.03209110201173898</v>
+        <v>0.03049495116109473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H4">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I4">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J4">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.01156013379793</v>
+        <v>7.676201333333334</v>
       </c>
       <c r="N4">
-        <v>7.01156013379793</v>
+        <v>23.028604</v>
       </c>
       <c r="O4">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="P4">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="Q4">
-        <v>41.44578521664939</v>
+        <v>50.20242324707824</v>
       </c>
       <c r="R4">
-        <v>41.44578521664939</v>
+        <v>451.8218092237041</v>
       </c>
       <c r="S4">
-        <v>0.1286606269455031</v>
+        <v>0.1314065938470987</v>
       </c>
       <c r="T4">
-        <v>0.1286606269455031</v>
+        <v>0.1314065938470987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H5">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I5">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J5">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.3576923313778</v>
+        <v>4.358929333333333</v>
       </c>
       <c r="N5">
-        <v>3.3576923313778</v>
+        <v>13.076788</v>
       </c>
       <c r="O5">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="P5">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="Q5">
-        <v>48.86588398035742</v>
+        <v>63.9666675457249</v>
       </c>
       <c r="R5">
-        <v>48.86588398035742</v>
+        <v>575.700007911524</v>
       </c>
       <c r="S5">
-        <v>0.151694924738291</v>
+        <v>0.16743498337847</v>
       </c>
       <c r="T5">
-        <v>0.151694924738291</v>
+        <v>0.16743498337847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H6">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I6">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J6">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.74885430653512</v>
+        <v>1.781382333333333</v>
       </c>
       <c r="N6">
-        <v>1.74885430653512</v>
+        <v>5.344147</v>
       </c>
       <c r="O6">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="P6">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="Q6">
-        <v>25.4517993930153</v>
+        <v>26.14153219158122</v>
       </c>
       <c r="R6">
-        <v>25.4517993930153</v>
+        <v>235.273789724231</v>
       </c>
       <c r="S6">
-        <v>0.07901031310370855</v>
+        <v>0.06842637229548265</v>
       </c>
       <c r="T6">
-        <v>0.07901031310370855</v>
+        <v>0.06842637229548267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H7">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I7">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J7">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.01156013379793</v>
+        <v>7.676201333333334</v>
       </c>
       <c r="N7">
-        <v>7.01156013379793</v>
+        <v>23.028604</v>
       </c>
       <c r="O7">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="P7">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="Q7">
-        <v>102.0421319778502</v>
+        <v>112.6471619873436</v>
       </c>
       <c r="R7">
-        <v>102.0421319778502</v>
+        <v>1013.824457886092</v>
       </c>
       <c r="S7">
-        <v>0.316770561988338</v>
+        <v>0.2948578754943009</v>
       </c>
       <c r="T7">
-        <v>0.316770561988338</v>
+        <v>0.2948578754943009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H8">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I8">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J8">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.3576923313778</v>
+        <v>4.358929333333333</v>
       </c>
       <c r="N8">
-        <v>3.3576923313778</v>
+        <v>13.076788</v>
       </c>
       <c r="O8">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="P8">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="Q8">
-        <v>20.54328097306855</v>
+        <v>28.05416072684933</v>
       </c>
       <c r="R8">
-        <v>20.54328097306855</v>
+        <v>252.487446541644</v>
       </c>
       <c r="S8">
-        <v>0.06377274301105164</v>
+        <v>0.07343274419664332</v>
       </c>
       <c r="T8">
-        <v>0.06377274301105164</v>
+        <v>0.07343274419664333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H9">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I9">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J9">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.74885430653512</v>
+        <v>1.781382333333333</v>
       </c>
       <c r="N9">
-        <v>1.74885430653512</v>
+        <v>5.344147</v>
       </c>
       <c r="O9">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="P9">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="Q9">
-        <v>10.69996945949169</v>
+        <v>11.46501410636233</v>
       </c>
       <c r="R9">
-        <v>10.69996945949169</v>
+        <v>103.185126957261</v>
       </c>
       <c r="S9">
-        <v>0.03321603805452601</v>
+        <v>0.03001007430878735</v>
       </c>
       <c r="T9">
-        <v>0.03321603805452601</v>
+        <v>0.03001007430878735</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H10">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I10">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J10">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.01156013379793</v>
+        <v>7.676201333333334</v>
       </c>
       <c r="N10">
-        <v>7.01156013379793</v>
+        <v>23.028604</v>
       </c>
       <c r="O10">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="P10">
-        <v>0.5786019438420932</v>
+        <v>0.5555816676272323</v>
       </c>
       <c r="Q10">
-        <v>42.8986445667198</v>
+        <v>49.40419298156133</v>
       </c>
       <c r="R10">
-        <v>42.8986445667198</v>
+        <v>444.637736834052</v>
       </c>
       <c r="S10">
-        <v>0.133170754908252</v>
+        <v>0.1293171982858327</v>
       </c>
       <c r="T10">
-        <v>0.133170754908252</v>
+        <v>0.1293171982858327</v>
       </c>
     </row>
   </sheetData>
